--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H2">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>2.280512619525</v>
+        <v>3.39510095856225</v>
       </c>
       <c r="R2">
-        <v>9.1220504781</v>
+        <v>13.580403834249</v>
       </c>
       <c r="S2">
-        <v>2.736359532456164E-05</v>
+        <v>2.234971369602521E-05</v>
       </c>
       <c r="T2">
-        <v>1.227956429180968E-05</v>
+        <v>1.005219193652379E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H3">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I3">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J3">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>0.080944636855</v>
+        <v>0.2215827262098333</v>
       </c>
       <c r="R3">
-        <v>0.48566782113</v>
+        <v>1.329496357259</v>
       </c>
       <c r="S3">
-        <v>9.712449155642729E-07</v>
+        <v>1.458663689598117E-06</v>
       </c>
       <c r="T3">
-        <v>6.537772673311426E-07</v>
+        <v>9.840909537883216E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H4">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I4">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J4">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>347.1531014769901</v>
+        <v>1553.85747386707</v>
       </c>
       <c r="R4">
-        <v>2082.91860886194</v>
+        <v>9323.144843202423</v>
       </c>
       <c r="S4">
-        <v>0.004165448111601077</v>
+        <v>0.01022893577811738</v>
       </c>
       <c r="T4">
-        <v>0.002803901714152145</v>
+        <v>0.006900976035744331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H5">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I5">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J5">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>1.93256713962</v>
+        <v>2.929862939619</v>
       </c>
       <c r="R5">
-        <v>11.59540283772</v>
+        <v>11.719451758476</v>
       </c>
       <c r="S5">
-        <v>2.318863955996082E-05</v>
+        <v>1.928708414515292E-05</v>
       </c>
       <c r="T5">
-        <v>1.560904480599546E-05</v>
+        <v>8.674718359253178E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H6">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I6">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J6">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>424.2066653371101</v>
+        <v>214.661088798037</v>
       </c>
       <c r="R6">
-        <v>2545.239992022661</v>
+        <v>1287.966532788222</v>
       </c>
       <c r="S6">
-        <v>0.005090004512531126</v>
+        <v>0.001413099031477654</v>
       </c>
       <c r="T6">
-        <v>0.003426251388891382</v>
+        <v>0.0009533506479943526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>392.0055033333333</v>
+        <v>19.4786585</v>
       </c>
       <c r="H7">
-        <v>1176.01651</v>
+        <v>38.957317</v>
       </c>
       <c r="I7">
-        <v>0.5127309595519816</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J7">
-        <v>0.5171970317736688</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>125.6358037908167</v>
+        <v>722.6804814708933</v>
       </c>
       <c r="R7">
-        <v>753.8148227448999</v>
+        <v>4336.082888825359</v>
       </c>
       <c r="S7">
-        <v>0.001507488826755096</v>
+        <v>0.004757355392877625</v>
       </c>
       <c r="T7">
-        <v>0.001014740885532035</v>
+        <v>0.003209561216524711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1176.01651</v>
       </c>
       <c r="I8">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J8">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>4.459323937418889</v>
+        <v>68.325971222745</v>
       </c>
       <c r="R8">
-        <v>40.13391543677</v>
+        <v>409.95582733647</v>
       </c>
       <c r="S8">
-        <v>5.35068890213276E-05</v>
+        <v>0.000449785120816521</v>
       </c>
       <c r="T8">
-        <v>5.402590087294929E-05</v>
+        <v>0.0003034486096422105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1176.01651</v>
       </c>
       <c r="I9">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J9">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>19125.02415865647</v>
+        <v>4.459323937418889</v>
       </c>
       <c r="R9">
-        <v>172125.2174279083</v>
+        <v>40.13391543677</v>
       </c>
       <c r="S9">
-        <v>0.2294788536442929</v>
+        <v>2.935541961654941E-05</v>
       </c>
       <c r="T9">
-        <v>0.23170477720136</v>
+        <v>2.970705628923863E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1176.01651</v>
       </c>
       <c r="I10">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J10">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>106.46712668332</v>
+        <v>31271.18231224818</v>
       </c>
       <c r="R10">
-        <v>958.20414014988</v>
+        <v>281440.6408102336</v>
       </c>
       <c r="S10">
-        <v>0.001277486186653075</v>
+        <v>0.2058560202318472</v>
       </c>
       <c r="T10">
-        <v>0.001289877683958995</v>
+        <v>0.2083218860567241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1176.01651</v>
       </c>
       <c r="I11">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J11">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>23369.98485198057</v>
+        <v>58.96311577837999</v>
       </c>
       <c r="R11">
-        <v>210329.8636678251</v>
+        <v>353.7786946702799</v>
       </c>
       <c r="S11">
-        <v>0.2804136240052591</v>
+        <v>0.0003881500940197202</v>
       </c>
       <c r="T11">
-        <v>0.2831336101019448</v>
+        <v>0.0002618663911090655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>225.9980216666667</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H12">
-        <v>677.994065</v>
+        <v>1176.01651</v>
       </c>
       <c r="I12">
-        <v>0.2955983564533448</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J12">
-        <v>0.2981731251189355</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>72.43123595405832</v>
+        <v>4320.026872505407</v>
       </c>
       <c r="R12">
-        <v>434.58741572435</v>
+        <v>38880.24185254866</v>
       </c>
       <c r="S12">
-        <v>0.0008690936469878032</v>
+        <v>0.02843843671751028</v>
       </c>
       <c r="T12">
-        <v>0.0005850158497379973</v>
+        <v>0.02877908922374086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>225.9980216666667</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H13">
-        <v>677.994065</v>
+        <v>1176.01651</v>
       </c>
       <c r="I13">
-        <v>0.2955983564533448</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J13">
-        <v>0.2981731251189355</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>2.570878161806111</v>
+        <v>14543.85197461997</v>
       </c>
       <c r="R13">
-        <v>23.137903456255</v>
+        <v>130894.6677715798</v>
       </c>
       <c r="S13">
-        <v>3.084765637607738E-05</v>
+        <v>0.09574116694537978</v>
       </c>
       <c r="T13">
-        <v>3.114687577654666E-05</v>
+        <v>0.09688801157658637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H14">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I14">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J14">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>11025.91057378158</v>
+        <v>65.3796928814985</v>
       </c>
       <c r="R14">
-        <v>99233.1951640342</v>
+        <v>392.278157288991</v>
       </c>
       <c r="S14">
-        <v>0.1322985685072008</v>
+        <v>0.0004303899752231056</v>
       </c>
       <c r="T14">
-        <v>0.1335818523284757</v>
+        <v>0.0002903636281882976</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H15">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I15">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J15">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>61.38015869258</v>
+        <v>4.267033812620111</v>
       </c>
       <c r="R15">
-        <v>552.42142823322</v>
+        <v>38.403304313581</v>
       </c>
       <c r="S15">
-        <v>0.0007364931064362921</v>
+        <v>2.808958708659555E-05</v>
       </c>
       <c r="T15">
-        <v>0.0007436370211334397</v>
+        <v>2.842606086449979E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H16">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I16">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J16">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.61647133333334</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N16">
-        <v>178.849414</v>
+        <v>239.316913</v>
       </c>
       <c r="O16">
-        <v>0.546902071703026</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P16">
-        <v>0.5474385827988417</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q16">
-        <v>13473.20458008088</v>
+        <v>29922.74034350706</v>
       </c>
       <c r="R16">
-        <v>121258.8412207279</v>
+        <v>269304.6630915636</v>
       </c>
       <c r="S16">
-        <v>0.1616633535363438</v>
+        <v>0.1969793204503388</v>
       </c>
       <c r="T16">
-        <v>0.1632314730438118</v>
+        <v>0.1993388558866059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.69026</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H17">
-        <v>25.38052</v>
+        <v>1125.305603</v>
       </c>
       <c r="I17">
-        <v>0.01659846387725661</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J17">
-        <v>0.01116202833655136</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.320495</v>
+        <v>0.150414</v>
       </c>
       <c r="N17">
-        <v>0.6409899999999999</v>
+        <v>0.300828</v>
       </c>
       <c r="O17">
-        <v>0.002940116641429889</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P17">
-        <v>0.001962000597822644</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q17">
-        <v>4.067164878699999</v>
+        <v>56.420572323214</v>
       </c>
       <c r="R17">
-        <v>16.2686595148</v>
+        <v>338.523433939284</v>
       </c>
       <c r="S17">
-        <v>4.880141986769503E-05</v>
+        <v>0.0003714127071271882</v>
       </c>
       <c r="T17">
-        <v>2.189990626922706E-05</v>
+        <v>0.0002505744729318646</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.69026</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H18">
-        <v>25.38052</v>
+        <v>1125.305603</v>
       </c>
       <c r="I18">
-        <v>0.01659846387725661</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J18">
-        <v>0.01116202833655136</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01137566666666667</v>
+        <v>11.020322</v>
       </c>
       <c r="N18">
-        <v>0.034127</v>
+        <v>33.060966</v>
       </c>
       <c r="O18">
-        <v>0.0001043566572771055</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P18">
-        <v>0.0001044590311890878</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q18">
-        <v>0.1443601676733333</v>
+        <v>4133.743364488056</v>
       </c>
       <c r="R18">
-        <v>0.8661610060399998</v>
+        <v>37203.6902803925</v>
       </c>
       <c r="S18">
-        <v>1.732160206165284E-06</v>
+        <v>0.02721214532844888</v>
       </c>
       <c r="T18">
-        <v>1.1659746661413E-06</v>
+        <v>0.02753810858719366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.69026</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H19">
-        <v>25.38052</v>
+        <v>1125.305603</v>
       </c>
       <c r="I19">
-        <v>0.01659846387725661</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J19">
-        <v>0.01116202833655136</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.78764200000001</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N19">
-        <v>146.362926</v>
+        <v>111.303427</v>
       </c>
       <c r="O19">
-        <v>0.4475619218406646</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P19">
-        <v>0.4480009802197716</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q19">
-        <v>619.12786176692</v>
+        <v>13916.70778180017</v>
       </c>
       <c r="R19">
-        <v>3714.76717060152</v>
+        <v>125250.3700362015</v>
       </c>
       <c r="S19">
-        <v>0.007428840392507817</v>
+        <v>0.09161272030219565</v>
       </c>
       <c r="T19">
-        <v>0.005000599636015877</v>
+        <v>0.09271011194448411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H20">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I20">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J20">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.271596</v>
+        <v>0.1742985</v>
       </c>
       <c r="N20">
-        <v>0.8147880000000001</v>
+        <v>0.348597</v>
       </c>
       <c r="O20">
-        <v>0.002491533157602434</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P20">
-        <v>0.00249397735237479</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q20">
-        <v>3.446623854959999</v>
+        <v>3.42009344617875</v>
       </c>
       <c r="R20">
-        <v>20.67974312976</v>
+        <v>13.680373784715</v>
       </c>
       <c r="S20">
-        <v>4.13556231154511E-05</v>
+        <v>2.25142375053604E-05</v>
       </c>
       <c r="T20">
-        <v>2.783784587792474E-05</v>
+        <v>1.012618952468348E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H21">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I21">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J21">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>59.61647133333334</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N21">
-        <v>178.849414</v>
+        <v>0.034127</v>
       </c>
       <c r="O21">
-        <v>0.546902071703026</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P21">
-        <v>0.5474385827988417</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q21">
-        <v>756.5485215025467</v>
+        <v>0.2232138716775</v>
       </c>
       <c r="R21">
-        <v>4539.29112901528</v>
+        <v>1.339283230065</v>
       </c>
       <c r="S21">
-        <v>0.009077734281559479</v>
+        <v>1.469401406868933E-06</v>
       </c>
       <c r="T21">
-        <v>0.00611052497372219</v>
+        <v>9.9133518047738E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.311581666666666</v>
+        <v>19.6220475</v>
       </c>
       <c r="H22">
-        <v>21.934745</v>
+        <v>39.244095</v>
       </c>
       <c r="I22">
-        <v>0.009563320545030469</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J22">
-        <v>0.009646620528067522</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.320495</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N22">
-        <v>0.6409899999999999</v>
+        <v>239.316913</v>
       </c>
       <c r="O22">
-        <v>0.002940116641429889</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P22">
-        <v>0.001962000597822644</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q22">
-        <v>2.343325366258333</v>
+        <v>1565.295944813123</v>
       </c>
       <c r="R22">
-        <v>14.05995219755</v>
+        <v>9391.775668878736</v>
       </c>
       <c r="S22">
-        <v>2.811727788177243E-05</v>
+        <v>0.01030423443753422</v>
       </c>
       <c r="T22">
-        <v>1.892667524303666E-05</v>
+        <v>0.00695177645676867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.311581666666666</v>
+        <v>19.6220475</v>
       </c>
       <c r="H23">
-        <v>21.934745</v>
+        <v>39.244095</v>
       </c>
       <c r="I23">
-        <v>0.009563320545030469</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J23">
-        <v>0.009646620528067522</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01137566666666667</v>
+        <v>0.150414</v>
       </c>
       <c r="N23">
-        <v>0.034127</v>
+        <v>0.300828</v>
       </c>
       <c r="O23">
-        <v>0.0001043566572771055</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P23">
-        <v>0.0001044590311890878</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q23">
-        <v>0.0831741158461111</v>
+        <v>2.951430652665</v>
       </c>
       <c r="R23">
-        <v>0.748567042615</v>
+        <v>11.80572261066</v>
       </c>
       <c r="S23">
-        <v>9.979961645488467E-07</v>
+        <v>1.942906290146662E-05</v>
       </c>
       <c r="T23">
-        <v>1.0076766346107E-06</v>
+        <v>8.738575898046978E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.311581666666666</v>
+        <v>19.6220475</v>
       </c>
       <c r="H24">
-        <v>21.934745</v>
+        <v>39.244095</v>
       </c>
       <c r="I24">
-        <v>0.009563320545030469</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J24">
-        <v>0.009646620528067522</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.78764200000001</v>
+        <v>11.020322</v>
       </c>
       <c r="N24">
-        <v>146.362926</v>
+        <v>33.060966</v>
       </c>
       <c r="O24">
-        <v>0.4475619218406646</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P24">
-        <v>0.4480009802197716</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q24">
-        <v>356.7148288070967</v>
+        <v>216.241281749295</v>
       </c>
       <c r="R24">
-        <v>3210.43345926387</v>
+        <v>1297.44769049577</v>
       </c>
       <c r="S24">
-        <v>0.004280178122312149</v>
+        <v>0.001423501331873472</v>
       </c>
       <c r="T24">
-        <v>0.004321695452382421</v>
+        <v>0.0009603685848848865</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.311581666666666</v>
+        <v>19.6220475</v>
       </c>
       <c r="H25">
-        <v>21.934745</v>
+        <v>39.244095</v>
       </c>
       <c r="I25">
-        <v>0.009563320545030469</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J25">
-        <v>0.009646620528067522</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.271596</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N25">
-        <v>0.8147880000000001</v>
+        <v>111.303427</v>
       </c>
       <c r="O25">
-        <v>0.002491533157602434</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P25">
-        <v>0.00249397735237479</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q25">
-        <v>1.98579633434</v>
+        <v>728.0003771689276</v>
       </c>
       <c r="R25">
-        <v>17.87216700906</v>
+        <v>4368.002263013565</v>
       </c>
       <c r="S25">
-        <v>2.3827330234724E-05</v>
+        <v>0.004792375896596058</v>
       </c>
       <c r="T25">
-        <v>2.405845312395414E-05</v>
+        <v>0.003233187883282911</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H26">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I26">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J26">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>59.61647133333334</v>
+        <v>0.1742985</v>
       </c>
       <c r="N26">
-        <v>178.849414</v>
+        <v>0.348597</v>
       </c>
       <c r="O26">
-        <v>0.546902071703026</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P26">
-        <v>0.5474385827988417</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q26">
-        <v>435.8906988321589</v>
+        <v>23.2544307903885</v>
       </c>
       <c r="R26">
-        <v>3923.016289489431</v>
+        <v>139.526584742331</v>
       </c>
       <c r="S26">
-        <v>0.005230199818437275</v>
+        <v>0.0001530823020206475</v>
       </c>
       <c r="T26">
-        <v>0.005280932270683499</v>
+        <v>0.0001032773419108803</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>119.4232813333333</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H27">
-        <v>358.269844</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I27">
-        <v>0.1562019234684543</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J27">
-        <v>0.1575624987533681</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.320495</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N27">
-        <v>0.6409899999999999</v>
+        <v>0.034127</v>
       </c>
       <c r="O27">
-        <v>0.002940116641429889</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P27">
-        <v>0.001962000597822644</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q27">
-        <v>38.27456455092666</v>
+        <v>1.517710440391222</v>
       </c>
       <c r="R27">
-        <v>229.64738730556</v>
+        <v>13.659393963521</v>
       </c>
       <c r="S27">
-        <v>0.0004592518746129604</v>
+        <v>9.990982368482109E-06</v>
       </c>
       <c r="T27">
-        <v>0.0003091377167485378</v>
+        <v>1.011066029653901E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>119.4232813333333</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H28">
-        <v>358.269844</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I28">
-        <v>0.1562019234684543</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J28">
-        <v>0.1575624987533681</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01137566666666667</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N28">
-        <v>0.034127</v>
+        <v>239.316913</v>
       </c>
       <c r="O28">
-        <v>0.0001043566572771055</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P28">
-        <v>0.0001044590311890878</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q28">
-        <v>1.358519440687555</v>
+        <v>10643.00341144249</v>
       </c>
       <c r="R28">
-        <v>12.226674966188</v>
+        <v>95787.03070298239</v>
       </c>
       <c r="S28">
-        <v>1.630071059342215E-05</v>
+        <v>0.07006215191087897</v>
       </c>
       <c r="T28">
-        <v>1.645882597150868E-05</v>
+        <v>0.07090139802969442</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>119.4232813333333</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H29">
-        <v>358.269844</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I29">
-        <v>0.1562019234684543</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J29">
-        <v>0.1575624987533681</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>48.78764200000001</v>
+        <v>0.150414</v>
       </c>
       <c r="N29">
-        <v>146.362926</v>
+        <v>0.300828</v>
       </c>
       <c r="O29">
-        <v>0.4475619218406646</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P29">
-        <v>0.4480009802197716</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q29">
-        <v>5826.38029615595</v>
+        <v>20.067825901574</v>
       </c>
       <c r="R29">
-        <v>52437.42266540354</v>
+        <v>120.406955409444</v>
       </c>
       <c r="S29">
-        <v>0.06991003306274982</v>
+        <v>0.0001321051034640784</v>
       </c>
       <c r="T29">
-        <v>0.07058815388738547</v>
+        <v>8.912502463407971E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>119.4232813333333</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H30">
-        <v>358.269844</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I30">
-        <v>0.1562019234684543</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J30">
-        <v>0.1575624987533681</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.271596</v>
+        <v>11.020322</v>
       </c>
       <c r="N30">
-        <v>0.8147880000000001</v>
+        <v>33.060966</v>
       </c>
       <c r="O30">
-        <v>0.002491533157602434</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P30">
-        <v>0.00249397735237479</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q30">
-        <v>32.434885517008</v>
+        <v>1470.301323515669</v>
       </c>
       <c r="R30">
-        <v>291.913969653072</v>
+        <v>13232.71191164102</v>
       </c>
       <c r="S30">
-        <v>0.0003891822716029317</v>
+        <v>0.009678891446391025</v>
       </c>
       <c r="T30">
-        <v>0.0003929573034744812</v>
+        <v>0.009794830963794833</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>119.4232813333333</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H31">
-        <v>358.269844</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I31">
-        <v>0.1562019234684543</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J31">
-        <v>0.1575624987533681</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.61647133333334</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N31">
-        <v>178.849414</v>
+        <v>111.303427</v>
       </c>
       <c r="O31">
-        <v>0.546902071703026</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P31">
-        <v>0.5474385827988417</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q31">
-        <v>7119.594628141269</v>
+        <v>4949.93328476638</v>
       </c>
       <c r="R31">
-        <v>64076.35165327142</v>
+        <v>44549.39956289742</v>
       </c>
       <c r="S31">
-        <v>0.08542715554889517</v>
+        <v>0.03258506685933822</v>
       </c>
       <c r="T31">
-        <v>0.08625579101978811</v>
+        <v>0.03297539016724671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H32">
+        <v>735.086327</v>
+      </c>
+      <c r="I32">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J32">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1742985</v>
+      </c>
+      <c r="N32">
+        <v>0.348597</v>
+      </c>
+      <c r="O32">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P32">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q32">
+        <v>42.7081480555365</v>
+      </c>
+      <c r="R32">
+        <v>256.248888333219</v>
+      </c>
+      <c r="S32">
+        <v>0.0002811447710034851</v>
+      </c>
+      <c r="T32">
+        <v>0.0001896749935042573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H33">
+        <v>735.086327</v>
+      </c>
+      <c r="I33">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J33">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.034127</v>
+      </c>
+      <c r="O33">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q33">
+        <v>2.787365675725444</v>
+      </c>
+      <c r="R33">
+        <v>25.086291081529</v>
+      </c>
+      <c r="S33">
+        <v>1.834903455859906E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.856883020599658E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H34">
+        <v>735.086327</v>
+      </c>
+      <c r="I34">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J34">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N34">
+        <v>239.316913</v>
+      </c>
+      <c r="O34">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P34">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q34">
+        <v>19546.5100629054</v>
+      </c>
+      <c r="R34">
+        <v>175918.5905661485</v>
+      </c>
+      <c r="S34">
+        <v>0.1286733175226139</v>
+      </c>
+      <c r="T34">
+        <v>0.1302146430368991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H35">
+        <v>735.086327</v>
+      </c>
+      <c r="I35">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J35">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.150414</v>
+      </c>
+      <c r="N35">
+        <v>0.300828</v>
+      </c>
+      <c r="O35">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P35">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q35">
+        <v>36.855758263126</v>
+      </c>
+      <c r="R35">
+        <v>221.134549578756</v>
+      </c>
+      <c r="S35">
+        <v>0.0002426188956630046</v>
+      </c>
+      <c r="T35">
+        <v>0.0001636834193808286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H36">
+        <v>735.086327</v>
+      </c>
+      <c r="I36">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J36">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.020322</v>
+      </c>
+      <c r="N36">
+        <v>33.060966</v>
+      </c>
+      <c r="O36">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P36">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q36">
+        <v>2700.296007112431</v>
+      </c>
+      <c r="R36">
+        <v>24302.66406401188</v>
+      </c>
+      <c r="S36">
+        <v>0.01777586098029913</v>
+      </c>
+      <c r="T36">
+        <v>0.01798879081373182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H37">
+        <v>735.086327</v>
+      </c>
+      <c r="I37">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J37">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N37">
+        <v>111.303427</v>
+      </c>
+      <c r="O37">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P37">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q37">
+        <v>9090.847481771403</v>
+      </c>
+      <c r="R37">
+        <v>81817.62733594263</v>
+      </c>
+      <c r="S37">
+        <v>0.05984441727996917</v>
+      </c>
+      <c r="T37">
+        <v>0.06056126929728763</v>
       </c>
     </row>
   </sheetData>
